--- a/EV spreadsheet.xlsx
+++ b/EV spreadsheet.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8190" tabRatio="228" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8190" tabRatio="284" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
@@ -800,7 +800,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -886,7 +886,7 @@
         <v>6.6029999999999998</v>
       </c>
       <c r="E2" s="2">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="F2" s="2">
         <v>1.4</v>
@@ -1073,25 +1073,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK56"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="1"/>
-    <col min="15" max="15" width="11.5703125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" style="1"/>
-    <col min="18" max="18" width="19.5703125" style="1"/>
-    <col min="19" max="1025" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1122,6 +1114,8 @@
       <c r="I1" s="2">
         <v>75</v>
       </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1140,8 +1134,6 @@
       <c r="Q1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1"/>
-      <c r="S1"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
@@ -1179,7 +1171,8 @@
         <f>(Sheet1!D2 * Sheet2!I1^2)/391</f>
         <v>94.992007672634273</v>
       </c>
-      <c r="L2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
       <c r="M2" s="7">
         <f>Sheet1!J2*Sheet1!O2</f>
         <v>18.2</v>
@@ -1200,27 +1193,10 @@
         <f>Sheet1!N2*Sheet1!O2</f>
         <v>5.2</v>
       </c>
-      <c r="R2"/>
-      <c r="S2"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
@@ -1258,6 +1234,8 @@
         <f>(0.98*(Sheet1!G2/Sheet2!I1)^2+0.63*(Sheet1!G2/Sheet2!I1))*Sheet1!F2-0.4*(Sheet1!G2/Sheet2!I1)</f>
         <v>0</v>
       </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1276,124 +1254,102 @@
       <c r="Q4" s="2">
         <v>9</v>
       </c>
-      <c r="R4"/>
-      <c r="S4"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="13"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M5" s="7">
         <f>(Sheet1!G5 *Sheet1!E2* (M4/21.95))</f>
-        <v>175.39863325740322</v>
+        <v>160.36446469248295</v>
       </c>
       <c r="N5" s="7">
         <f>(Sheet1!G5 *Sheet1!E2* (N4/21.95))</f>
-        <v>350.79726651480644</v>
+        <v>320.72892938496591</v>
       </c>
       <c r="O5" s="7">
         <f>(Sheet1!G5 *Sheet1!E2* (O4/21.95))</f>
-        <v>526.1958997722096</v>
+        <v>481.09339407744881</v>
       </c>
       <c r="P5" s="7">
         <f>(Sheet1!G5 *Sheet1!E2* (P4/21.95))</f>
-        <v>701.59453302961288</v>
+        <v>641.45785876993182</v>
       </c>
       <c r="Q5" s="7">
         <f>(Sheet1!G5 *Sheet1!E2* (Q4/21.95))</f>
-        <v>1578.5876993166289</v>
-      </c>
-      <c r="R5"/>
-      <c r="S5"/>
+        <v>1443.2801822323465</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="7">
-        <f t="shared" ref="B6:I6" si="0">B2 * (1 + B4)</f>
+        <f>B2 * (1 + B4)</f>
         <v>3.7996803069053708</v>
       </c>
       <c r="C6" s="7">
-        <f t="shared" si="0"/>
+        <f>C2 * (1 + C4)</f>
         <v>10.554667519181585</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" si="0"/>
+        <f>D2 * (1 + D4)</f>
         <v>15.198721227621483</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="0"/>
+        <f>E2 * (1 + E4)</f>
         <v>27.019948849104857</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
+        <f>F2 * (1 + F4)</f>
         <v>42.21867007672634</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="0"/>
+        <f>G2 * (1 + G4)</f>
         <v>60.794884910485933</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="0"/>
+        <f>H2 * (1 + H4)</f>
         <v>71.349552429667511</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="0"/>
+        <f>I2 * (1 + I4)</f>
         <v>94.992007672634273</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="13"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M7" s="7">
         <f>M5*(840.34/S25)</f>
-        <v>182.41892013802749</v>
+        <v>166.78301269762514</v>
       </c>
       <c r="N7" s="7">
         <f>N5*(840.34/S25)</f>
-        <v>364.83784027605498</v>
+        <v>333.56602539525028</v>
       </c>
       <c r="O7" s="7">
         <f>O5*(840.34/S25)</f>
-        <v>547.25676041408246</v>
+        <v>500.34903809287539</v>
       </c>
       <c r="P7" s="7">
         <f>P5*(840.34/S25)</f>
-        <v>729.67568055210995</v>
+        <v>667.13205079050056</v>
       </c>
       <c r="Q7" s="7">
         <f>Q5*(840.34/S25)</f>
-        <v>1641.7702812422474</v>
-      </c>
-      <c r="S7"/>
+        <v>1501.0471142786264</v>
+      </c>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="14" t="s">
@@ -1401,65 +1357,58 @@
       </c>
       <c r="B8" s="7">
         <f>(Sheet1!H2 *Sheet1!E2)</f>
-        <v>62.999999999999993</v>
+        <v>57.599999999999994</v>
       </c>
       <c r="C8" s="7">
         <f>(Sheet1!H2 *Sheet1!E2)</f>
-        <v>62.999999999999993</v>
+        <v>57.599999999999994</v>
       </c>
       <c r="D8" s="7">
         <f>(Sheet1!H2 *Sheet1!E2)</f>
-        <v>62.999999999999993</v>
+        <v>57.599999999999994</v>
       </c>
       <c r="E8" s="7">
         <f>(Sheet1!H2 *Sheet1!E2)</f>
-        <v>62.999999999999993</v>
+        <v>57.599999999999994</v>
       </c>
       <c r="F8" s="7">
         <f>(Sheet1!H2 *Sheet1!E2)</f>
-        <v>62.999999999999993</v>
+        <v>57.599999999999994</v>
       </c>
       <c r="G8" s="7">
         <f>(Sheet1!H2 *Sheet1!E2)</f>
-        <v>62.999999999999993</v>
+        <v>57.599999999999994</v>
       </c>
       <c r="H8" s="7">
         <f>(Sheet1!H2 *Sheet1!E2)</f>
-        <v>62.999999999999993</v>
+        <v>57.599999999999994</v>
       </c>
       <c r="I8" s="7">
         <f>(Sheet1!H2 *Sheet1!E2)</f>
-        <v>62.999999999999993</v>
-      </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="P8"/>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
       <c r="Q8" s="1">
         <f>Q7/Q2</f>
-        <v>315.72505408504759</v>
+        <v>288.66290659204356</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S8"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="13"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="L9">
-        <v>9.9999999999999895E+76</v>
-      </c>
-      <c r="M9"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1">
         <f>(Q8 * H1 * S25)/(315120 *S24)</f>
-        <v>58.467602608342148</v>
+        <v>53.456093813341397</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>45</v>
@@ -1473,68 +1422,64 @@
         <v>47</v>
       </c>
       <c r="B10" s="7">
-        <f t="shared" ref="B10:I10" si="1">B6 + B8</f>
-        <v>66.799680306905358</v>
+        <f>B6 + B8</f>
+        <v>61.399680306905367</v>
       </c>
       <c r="C10" s="7">
-        <f t="shared" si="1"/>
-        <v>73.554667519181578</v>
+        <f>C6 + C8</f>
+        <v>68.154667519181572</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" si="1"/>
-        <v>78.198721227621476</v>
+        <f>D6 + D8</f>
+        <v>72.798721227621485</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="1"/>
-        <v>90.01994884910485</v>
+        <f>E6 + E8</f>
+        <v>84.619948849104844</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="1"/>
-        <v>105.21867007672634</v>
+        <f>F6 + F8</f>
+        <v>99.818670076726335</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="1"/>
-        <v>123.79488491048593</v>
+        <f>G6 + G8</f>
+        <v>118.39488491048593</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="1"/>
-        <v>134.34955242966751</v>
+        <f>H6 + H8</f>
+        <v>128.94955242966751</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="1"/>
-        <v>157.99200767263426</v>
-      </c>
-      <c r="L10"/>
-      <c r="M10"/>
+        <f>I6 + I8</f>
+        <v>152.59200767263428</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1">
         <f>Q9*0.746</f>
-        <v>43.616831545823239</v>
+        <v>39.878245984752681</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S10"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="13"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="L11"/>
-      <c r="M11"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1">
         <f>Q9+H16</f>
-        <v>84.341715394061254</v>
+        <v>78.290231351535738</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S11"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="14" t="s">
@@ -1542,67 +1487,63 @@
       </c>
       <c r="B12" s="7">
         <f>(840.3/Sheet1!P2) *Sheet2!B10</f>
-        <v>69.47001406174823</v>
+        <v>63.854147725114572</v>
       </c>
       <c r="C12" s="7">
         <f>(840.3/Sheet1!P2) *Sheet2!C10</f>
-        <v>76.495033559861724</v>
+        <v>70.879167223228052</v>
       </c>
       <c r="D12" s="7">
         <f>(840.3/Sheet1!P2) *Sheet2!D10</f>
-        <v>81.324734464814753</v>
+        <v>75.708868128181095</v>
       </c>
       <c r="E12" s="7">
         <f>(840.3/Sheet1!P2) *Sheet2!E10</f>
-        <v>93.61851858651336</v>
+        <v>88.002652249879688</v>
       </c>
       <c r="F12" s="7">
         <f>(840.3/Sheet1!P2) *Sheet2!F10</f>
-        <v>109.42481245726873</v>
+        <v>103.80894612063506</v>
       </c>
       <c r="G12" s="7">
         <f>(840.3/Sheet1!P2) *Sheet2!G10</f>
-        <v>128.74361607708084</v>
+        <v>123.12774974044717</v>
       </c>
       <c r="H12" s="7">
         <f>(840.3/Sheet1!P2) *Sheet2!H10</f>
-        <v>139.72020904288317</v>
+        <v>134.1043427062495</v>
       </c>
       <c r="I12" s="7">
         <f>(840.3/Sheet1!P2) *Sheet2!I10</f>
-        <v>164.30777728628038</v>
-      </c>
-      <c r="L12"/>
-      <c r="M12"/>
+        <v>158.69191094964674</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
       <c r="Q12" s="1">
         <f>Q11*0.746</f>
-        <v>62.918919683969698</v>
+        <v>58.404512588245659</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S12"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="L13"/>
-      <c r="M13"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
       <c r="Q13" s="1">
         <f>((Q12 * 1000)/Sheet1!C5)/(Sheet1!B5/100)</f>
-        <v>205.61738458813628</v>
+        <v>190.86442022302504</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S13"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="14" t="s">
@@ -1640,23 +1581,23 @@
         <f>(I1 * Sheet1!P2) /60</f>
         <v>1010</v>
       </c>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="S14"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="13"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="S15"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="14" t="s">
@@ -1664,107 +1605,105 @@
       </c>
       <c r="B16" s="7">
         <f>(B12*B1*S25)/(315120 * S24)</f>
-        <v>2.96880401973283</v>
+        <v>2.7288097318425031</v>
       </c>
       <c r="C16" s="7">
         <f>(C12*C1*S25)/(315120 * S24)</f>
-        <v>5.4483642136653652</v>
+        <v>5.0483737338481518</v>
       </c>
       <c r="D16" s="7">
         <f>(D12*D1*S25)/(315120 * S24)</f>
-        <v>6.9508320055397217</v>
+        <v>6.4708434297590678</v>
       </c>
       <c r="E16" s="7">
         <f>(E12*E1*S25)/(315120 * S24)</f>
-        <v>10.668777046896109</v>
+        <v>10.02879227918857</v>
       </c>
       <c r="F16" s="7">
         <f>(F12*F1*S25)/(315120 * S24)</f>
-        <v>15.587580122118052</v>
+        <v>14.787599162483627</v>
       </c>
       <c r="G16" s="7">
         <f>(G12*G1*S25)/(315120 * S24)</f>
-        <v>22.00745573967194</v>
+        <v>21.047478588110629</v>
       </c>
       <c r="H16" s="7">
         <f>(H12*H1*S25)/(315120 * S24)</f>
-        <v>25.874112785719106</v>
+        <v>24.834137538194348</v>
       </c>
       <c r="I16" s="7">
         <f>(I12*I1*S25)/(315120 * S24)</f>
-        <v>35.108499420145378</v>
-      </c>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="S16"/>
+        <v>33.908527980693748</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="S17"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="7">
-        <f t="shared" ref="B18:I18" si="2">B16*0.746</f>
-        <v>2.2147277987206913</v>
+        <f>B16*0.746</f>
+        <v>2.0356920599545072</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" si="2"/>
-        <v>4.0644797033943627</v>
+        <f>C16*0.746</f>
+        <v>3.7660868054507213</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="2"/>
-        <v>5.1853206761326325</v>
+        <f>D16*0.746</f>
+        <v>4.8272491986002644</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="2"/>
-        <v>7.9589076769844969</v>
+        <f>E16*0.746</f>
+        <v>7.4814790402746736</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="2"/>
-        <v>11.628334771100066</v>
+        <f>F16*0.746</f>
+        <v>11.031548975212786</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="2"/>
-        <v>16.417561981795266</v>
+        <f>G16*0.746</f>
+        <v>15.701419026730528</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="2"/>
-        <v>19.302088138146452</v>
+        <f>H16*0.746</f>
+        <v>18.526266603492985</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="2"/>
-        <v>26.190940567428452</v>
-      </c>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="S18"/>
+        <f>I16*0.746</f>
+        <v>25.295761873597534</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="S19"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
@@ -1772,53 +1711,52 @@
       </c>
       <c r="B20" s="7">
         <f>((1000 *B18)/(Sheet1!C5))/(Sheet1!B5/100)</f>
-        <v>7.237672544838861</v>
+        <v>6.6525884312238803</v>
       </c>
       <c r="C20" s="7">
         <f>((1000 *C18)/Sheet1!C5)/(Sheet1!B5/100)</f>
-        <v>13.282613409785499</v>
+        <v>12.307473220427195</v>
       </c>
       <c r="D20" s="7">
         <f>((1000 *D18)/Sheet1!C5)/(Sheet1!B5/100)</f>
-        <v>16.945492405662197</v>
+        <v>15.775324178432237</v>
       </c>
       <c r="E20" s="7">
         <f>((1000 *E18)/Sheet1!C5)/(Sheet1!B5/100)</f>
-        <v>26.009502212367639</v>
+        <v>24.449277909394358</v>
       </c>
       <c r="F20" s="7">
         <f>((1000 *F18)/Sheet1!C5)/(Sheet1!B5/100)</f>
-        <v>38.001094023202832</v>
+        <v>36.050813644486233</v>
       </c>
       <c r="G20" s="7">
         <f>((1000 *G18)/Sheet1!C5)/(Sheet1!B5/100)</f>
-        <v>53.652163339200214</v>
+        <v>51.311826884740299</v>
       </c>
       <c r="H20" s="7">
         <f>((1000 *H18)/Sheet1!C5)/(Sheet1!B5/100)</f>
-        <v>63.078719405707368</v>
+        <v>60.543354913375772</v>
       </c>
       <c r="I20" s="7">
         <f>((1000 *I18)/Sheet1!C5)/(Sheet1!B5/100)</f>
-        <v>85.59130904388384</v>
-      </c>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="S20"/>
+        <v>82.665888475808927</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="S21"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
@@ -1826,53 +1764,52 @@
       </c>
       <c r="B22" s="7">
         <f>(Sheet1!E5*(Sheet1!F5/100))*B1/B20</f>
-        <v>119.68626580346157</v>
+        <v>130.21247428057646</v>
       </c>
       <c r="C22" s="7">
         <f>(Sheet1!E5*(Sheet1!F5/100))*C1/C20</f>
-        <v>108.69472410725798</v>
+        <v>117.3067756591785</v>
       </c>
       <c r="D22" s="7">
         <f>(Sheet1!E5*(Sheet1!F5/100))*D1/D20</f>
-        <v>102.23957843922548</v>
+        <v>109.82341664766835</v>
       </c>
       <c r="E22" s="7">
         <f>(Sheet1!E5*(Sheet1!F5/100))*E1/E20</f>
-        <v>88.813695131065757</v>
+        <v>94.481317957959348</v>
       </c>
       <c r="F22" s="7">
         <f>(Sheet1!E5*(Sheet1!F5/100))*F1/F20</f>
-        <v>75.984654500655708</v>
+        <v>80.095279637097093</v>
       </c>
       <c r="G22" s="7">
         <f>(Sheet1!E5*(Sheet1!F5/100))*G1/G20</f>
-        <v>64.582670750730856</v>
+        <v>67.528291436266542</v>
       </c>
       <c r="H22" s="7">
         <f>(Sheet1!E5*(Sheet1!F5/100))*H1/H20</f>
-        <v>59.508976012286645</v>
+        <v>62.001023983074454</v>
       </c>
       <c r="I22" s="7">
         <f>(Sheet1!E5*(Sheet1!F5/100))*I1/I20</f>
-        <v>50.603852755415957</v>
-      </c>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="S22"/>
+        <v>52.394646448002341</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="S23"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="11" t="s">
@@ -1880,46 +1817,65 @@
       </c>
       <c r="B24" s="12">
         <f>(Sheet1!E5*Sheet1!C5)*(Sheet1!F5/100)/B22</f>
-        <v>173.70414107613266</v>
+        <v>159.66212234937313</v>
       </c>
       <c r="C24" s="12">
         <f>(Sheet1!E5*Sheet1!C5)*(Sheet1!F5/100)/C22</f>
-        <v>191.26963310091119</v>
+        <v>177.22761437415159</v>
       </c>
       <c r="D24" s="12">
         <f>(Sheet1!E5*Sheet1!C5)*(Sheet1!F5/100)/D22</f>
-        <v>203.34590886794638</v>
+        <v>189.30389014118686</v>
       </c>
       <c r="E24" s="12">
         <f>(Sheet1!E5*Sheet1!C5)*(Sheet1!F5/100)/E22</f>
-        <v>234.08551991130878</v>
+        <v>220.04350118454923</v>
       </c>
       <c r="F24" s="12">
         <f>(Sheet1!E5*Sheet1!C5)*(Sheet1!F5/100)/F22</f>
-        <v>273.60787696706041</v>
+        <v>259.56585824030088</v>
       </c>
       <c r="G24" s="12">
         <f>(Sheet1!E5*Sheet1!C5)*(Sheet1!F5/100)/G22</f>
-        <v>321.91298003520131</v>
+        <v>307.87096130844185</v>
       </c>
       <c r="H24" s="12">
         <f>(Sheet1!E5*Sheet1!C5)*(Sheet1!F5/100)/H22</f>
-        <v>349.35906132391773</v>
+        <v>335.31704259715815</v>
       </c>
       <c r="I24" s="12">
         <f>(Sheet1!E5*Sheet1!C5)*(Sheet1!F5/100)/I22</f>
-        <v>410.83828341064242</v>
-      </c>
-      <c r="L24"/>
-      <c r="M24"/>
+        <v>396.79626468388284</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
       <c r="S24" s="1">
         <f>Sheet1!I2</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="L25"/>
-      <c r="M25"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
       <c r="S25" s="1">
         <f>Sheet1!P2</f>
         <v>808</v>
@@ -1931,42 +1887,63 @@
       </c>
       <c r="B26" s="15">
         <f>(Sheet1!H5*(Sheet2!B24/1000))</f>
-        <v>1.9107455518374592E-2</v>
+        <v>1.7562833458431043E-2</v>
       </c>
       <c r="C26" s="15">
         <f>(Sheet1!H5*(Sheet2!C24/1000))</f>
-        <v>2.1039659641100231E-2</v>
+        <v>1.9495037581156675E-2</v>
       </c>
       <c r="D26" s="15">
         <f>(Sheet1!H5*(Sheet2!D24/1000))</f>
-        <v>2.2368049975474102E-2</v>
+        <v>2.0823427915530553E-2</v>
       </c>
       <c r="E26" s="15">
         <f>(Sheet1!H5*(Sheet2!E24/1000))</f>
-        <v>2.5749407190243965E-2</v>
+        <v>2.4204785130300416E-2</v>
       </c>
       <c r="F26" s="15">
         <f>(Sheet1!H5*(Sheet2!F24/1000))</f>
-        <v>3.0096866466376646E-2</v>
+        <v>2.8552244406433096E-2</v>
       </c>
       <c r="G26" s="15">
         <f>(Sheet1!H5*(Sheet2!G24/1000))</f>
-        <v>3.5410427803872144E-2</v>
+        <v>3.3865805743928598E-2</v>
       </c>
       <c r="H26" s="15">
         <f>(Sheet1!H5*(Sheet2!H24/1000))</f>
-        <v>3.8429496745630953E-2</v>
+        <v>3.6884874685687401E-2</v>
       </c>
       <c r="I26" s="15">
         <f>(Sheet1!H5*(Sheet2!I24/1000))</f>
-        <v>4.5192211175170666E-2</v>
-      </c>
-      <c r="L26"/>
-      <c r="M26"/>
+        <v>4.3647589115227113E-2</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="L27"/>
-      <c r="M27"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="11" t="s">
@@ -1974,35 +1951,35 @@
       </c>
       <c r="B28" s="15">
         <f>(Sheet1!I5/Sheet1!J5)-B26</f>
-        <v>0.11896946755854848</v>
+        <v>0.12051408961849203</v>
       </c>
       <c r="C28" s="15">
         <f>(Sheet1!I5/Sheet1!J5)-C26</f>
-        <v>0.11703726343582284</v>
+        <v>0.1185818854957664</v>
       </c>
       <c r="D28" s="15">
         <f>(Sheet1!I5/Sheet1!J5)-D26</f>
-        <v>0.11570887310144896</v>
+        <v>0.11725349516139252</v>
       </c>
       <c r="E28" s="15">
         <f>(Sheet1!I5/Sheet1!J5)-E26</f>
-        <v>0.11232751588667911</v>
+        <v>0.11387213794662265</v>
       </c>
       <c r="F28" s="15">
         <f>(Sheet1!I5/Sheet1!J5)-F26</f>
-        <v>0.10798005661054642</v>
+        <v>0.10952467867048997</v>
       </c>
       <c r="G28" s="15">
         <f>(Sheet1!I5/Sheet1!J5)-G26</f>
-        <v>0.10266649527305093</v>
+        <v>0.10421111733299447</v>
       </c>
       <c r="H28" s="15">
         <f>(Sheet1!I5/Sheet1!J5)-H26</f>
-        <v>9.9647426331292116E-2</v>
+        <v>0.10119204839123566</v>
       </c>
       <c r="I28" s="15">
         <f>(Sheet1!I5/Sheet1!J5)-I26</f>
-        <v>9.2884711901752404E-2</v>
+        <v>9.4429333961695949E-2</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>72</v>
@@ -2022,17 +1999,29 @@
       <c r="O28" s="11" t="s">
         <v>76</v>
       </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="11" t="s">
         <v>70</v>
       </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1">
         <v>40</v>
       </c>
       <c r="K29" s="1">
         <f>H26*J29</f>
-        <v>1.5371798698252381</v>
+        <v>1.4753949874274961</v>
       </c>
       <c r="L29">
         <f>(Sheet1!I5/Sheet1!J5)*J29</f>
@@ -2040,22 +2029,40 @@
       </c>
       <c r="M29" s="1">
         <f>L29-K29</f>
-        <v>3.9858970532516849</v>
+        <v>4.0476819356494271</v>
       </c>
       <c r="N29" s="1">
         <v>188</v>
       </c>
       <c r="O29" s="1">
         <f>N29*K29</f>
-        <v>288.98981552714474</v>
-      </c>
+        <v>277.37425763636924</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L30"/>
-      <c r="M30"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
@@ -2093,8 +2100,14 @@
         <f>(M2 * I14)</f>
         <v>18382</v>
       </c>
-      <c r="L31"/>
-      <c r="M31"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
@@ -2132,10 +2145,16 @@
         <f>N2 * I14</f>
         <v>11081.72</v>
       </c>
-      <c r="L32"/>
-      <c r="M32"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2171,10 +2190,16 @@
         <f>O2 * I14</f>
         <v>7510.36</v>
       </c>
-      <c r="L33"/>
-      <c r="M33"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -2210,10 +2235,16 @@
         <f>P2 * I14</f>
         <v>5409.56</v>
       </c>
-      <c r="L34"/>
-      <c r="M34"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,32 +2280,45 @@
         <f>Q2 * I14</f>
         <v>5252</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
@@ -2310,8 +2354,18 @@
         <f>M2</f>
         <v>18.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -2347,8 +2401,18 @@
         <f>N2</f>
         <v>10.972</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -2384,8 +2448,18 @@
         <f>O2</f>
         <v>7.4359999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -2421,8 +2495,18 @@
         <f>P2</f>
         <v>5.3560000000000008</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -2458,227 +2542,321 @@
         <f>Q2</f>
         <v>5.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B45" s="7">
         <f>B12/M2</f>
-        <v>3.8170337396564964</v>
+        <v>3.5084696552260755</v>
       </c>
       <c r="C45" s="7">
         <f>C12/M2</f>
-        <v>4.203023821970425</v>
+        <v>3.8944597375400032</v>
       </c>
       <c r="D45" s="7">
         <f>D12/M2</f>
-        <v>4.4683920035612505</v>
+        <v>4.1598279191308292</v>
       </c>
       <c r="E45" s="7">
         <f>E12/M2</f>
-        <v>5.1438746476106241</v>
+        <v>4.8353105631802027</v>
       </c>
       <c r="F45" s="7">
         <f>F12/M2</f>
-        <v>6.0123523328169632</v>
+        <v>5.7037882483865419</v>
       </c>
       <c r="G45" s="7">
         <f>G12/M2</f>
-        <v>7.0738250591802663</v>
+        <v>6.7652609747498449</v>
       </c>
       <c r="H45" s="7">
         <f>H12/M2</f>
-        <v>7.676934562795779</v>
+        <v>7.3683704783653576</v>
       </c>
       <c r="I45" s="7">
         <f>I12/M2</f>
-        <v>9.0278998508945261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>8.7193357664641074</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B46" s="7">
         <f>B12/N2</f>
-        <v>6.3315725539325767</v>
+        <v>5.81973639492477</v>
       </c>
       <c r="C46" s="7">
         <f>C12/N2</f>
-        <v>6.9718404629841162</v>
+        <v>6.4600043039763086</v>
       </c>
       <c r="D46" s="7">
         <f>D12/N2</f>
-        <v>7.4120246504570506</v>
+        <v>6.9001884914492431</v>
       </c>
       <c r="E46" s="7">
         <f>E12/N2</f>
-        <v>8.5324934912972434</v>
+        <v>8.0206573322894368</v>
       </c>
       <c r="F46" s="7">
         <f>F12/N2</f>
-        <v>9.9730962866632087</v>
+        <v>9.4612601276554003</v>
       </c>
       <c r="G46" s="7">
         <f>G12/N2</f>
-        <v>11.733833036554945</v>
+        <v>11.221996877547136</v>
       </c>
       <c r="H46" s="7">
         <f>H12/N2</f>
-        <v>12.734251644447975</v>
+        <v>12.222415485440166</v>
       </c>
       <c r="I46" s="7">
         <f>I12/N2</f>
-        <v>14.975189326128362</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>14.463353167120557</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B47" s="7">
         <f>B12/O2</f>
-        <v>9.3423902718865293</v>
+        <v>8.5871634918120723</v>
       </c>
       <c r="C47" s="7">
         <f>C12/O2</f>
-        <v>10.287121242584956</v>
+        <v>9.5318944625104969</v>
       </c>
       <c r="D47" s="7">
         <f>D12/O2</f>
-        <v>10.936623784940123</v>
+        <v>10.181397004865666</v>
       </c>
       <c r="E47" s="7">
         <f>E12/O2</f>
-        <v>12.589902983662366</v>
+        <v>11.834676203587909</v>
       </c>
       <c r="F47" s="7">
         <f>F12/O2</f>
-        <v>14.715547667733826</v>
+        <v>13.960320887659368</v>
       </c>
       <c r="G47" s="7">
         <f>G12/O2</f>
-        <v>17.313557837154498</v>
+        <v>16.558331057080039</v>
       </c>
       <c r="H47" s="7">
         <f>H12/O2</f>
-        <v>18.789699978870786</v>
+        <v>18.034473198796327</v>
       </c>
       <c r="I47" s="7">
         <f>I12/O2</f>
-        <v>22.096258376315276</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>21.341031596240821</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B48" s="7">
         <f>B12/P2</f>
-        <v>12.970502998832751</v>
+        <v>11.921984265331323</v>
       </c>
       <c r="C48" s="7">
         <f>C12/P2</f>
-        <v>14.282119783394643</v>
+        <v>13.233601049893212</v>
       </c>
       <c r="D48" s="7">
         <f>D12/P2</f>
-        <v>15.183856322780946</v>
+        <v>14.135337589279516</v>
       </c>
       <c r="E48" s="7">
         <f>E12/P2</f>
-        <v>17.479185695764254</v>
+        <v>16.430666962262823</v>
       </c>
       <c r="F48" s="7">
         <f>F12/P2</f>
-        <v>20.430323461028511</v>
+        <v>19.381804727527079</v>
       </c>
       <c r="G48" s="7">
         <f>G12/P2</f>
-        <v>24.037269618573717</v>
+        <v>22.988750885072285</v>
       </c>
       <c r="H48" s="7">
         <f>H12/P2</f>
-        <v>26.086670844451671</v>
+        <v>25.038152110950239</v>
       </c>
       <c r="I48" s="7">
         <f>I12/P2</f>
-        <v>30.677329590418289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>29.628810856916864</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="7">
         <f>B12/Q2</f>
-        <v>13.359618088797736</v>
+        <v>12.279643793291264</v>
       </c>
       <c r="C49" s="7">
         <f>C12/Q2</f>
-        <v>14.710583376896485</v>
+        <v>13.630609081390009</v>
       </c>
       <c r="D49" s="7">
         <f>D12/Q2</f>
-        <v>15.639372012464374</v>
+        <v>14.559397716957902</v>
       </c>
       <c r="E49" s="7">
         <f>E12/Q2</f>
-        <v>18.003561266637185</v>
+        <v>16.92358697113071</v>
       </c>
       <c r="F49" s="7">
         <f>F12/Q2</f>
-        <v>21.04323316485937</v>
+        <v>19.963258869352895</v>
       </c>
       <c r="G49" s="7">
         <f>G12/Q2</f>
-        <v>24.758387707130932</v>
+        <v>23.678413411624454</v>
       </c>
       <c r="H49" s="7">
         <f>H12/Q2</f>
-        <v>26.869270969785223</v>
+        <v>25.789296674278749</v>
       </c>
       <c r="I49" s="7">
         <f>I12/Q2</f>
-        <v>31.59764947813084</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50"/>
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="1:9">
+        <v>30.517675182624373</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1" t="s">
         <v>32</v>
       </c>
@@ -2686,8 +2864,25 @@
         <f>((Sheet1!D5 * 60) / M2)/S25</f>
         <v>18.360352518768362</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1" t="s">
         <v>33</v>
       </c>
@@ -2695,8 +2890,25 @@
         <f>((Sheet1!D5 * 60) / N2)/S25</f>
         <v>30.455561050089699</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
@@ -2704,8 +2916,25 @@
         <f>((Sheet1!D5 * 60) / O2)/S25</f>
         <v>44.937925745237244</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1" t="s">
         <v>35</v>
       </c>
@@ -2713,8 +2942,25 @@
         <f>((Sheet1!D5 * 60) / P2)/S25</f>
         <v>62.389547393873059</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="1" t="s">
         <v>36</v>
       </c>
@@ -2722,9 +2968,25 @@
         <f>((Sheet1!D5 * 60) / Q2)/S25</f>
         <v>64.261233815689266</v>
       </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>